--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBudget.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBudget.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503FBDB7-F926-4A5D-988A-0DB071E41C5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="0" windowWidth="14496" windowHeight="12108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -244,12 +243,32 @@
     <t>預算數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LM023 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>利息收入</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相關報表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,6 +360,13 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -415,7 +441,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,11 +510,14 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,23 +608,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -631,23 +643,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -823,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -841,7 +836,7 @@
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>20</v>
       </c>
@@ -855,8 +850,11 @@
       <c r="E1" s="11"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="13" t="s">
@@ -868,8 +866,11 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
@@ -882,7 +883,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
@@ -893,7 +894,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>25</v>
       </c>
@@ -904,7 +905,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
@@ -915,7 +916,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
@@ -926,7 +927,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>28</v>
       </c>
@@ -949,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="19">
         <v>1</v>
       </c>
@@ -968,7 +969,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>2</v>
       </c>
@@ -989,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>3</v>
       </c>
@@ -1010,7 +1011,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>4</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>5</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>7</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1170,7 +1171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBudget.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/CdBudget.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFD40D8-C76F-4C37-B8A8-6B863BA5EE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -129,9 +122,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>CreateEmpNo</t>
@@ -263,11 +253,14 @@
     <t>相關報表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -441,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,9 +450,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,16 +459,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,9 +477,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -502,22 +489,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,9 +517,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -573,9 +557,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,7 +594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -818,341 +802,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="23" t="s">
+      <c r="C9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="17">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="17">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="17">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17">
+        <v>2</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17">
         <v>6</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
-        <v>1</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="19">
-        <v>4</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="19">
-        <v>16</v>
-      </c>
-      <c r="F11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="B15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="19">
-        <v>6</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
-        <v>6</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="19">
-        <v>6</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1171,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1200,13 +1184,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
